--- a/src/public/assets/mau_tiep_nhan.xlsx
+++ b/src/public/assets/mau_tiep_nhan.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Mã phiếu</t>
-  </si>
-  <si>
-    <t>Tên TB</t>
-  </si>
-  <si>
     <t>Serial</t>
   </si>
   <si>
     <t>Mô tả lỗi</t>
+  </si>
+  <si>
+    <t>Mã phiếu *</t>
+  </si>
+  <si>
+    <t>Tên TB *</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,16 +415,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
